--- a/data/trans_dic/P6906-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6906-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,38%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 32,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>8,49; 43,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,0; 61,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0,0; 28,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 67,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>15,1; 86,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>4,34; 40,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 25,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>10,05; 41,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>13,26; 59,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>4,09; 27,18</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>9,39; 30,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>8,27; 27,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>12,03; 40,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>11,2; 40,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>7,65; 42,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>20,13; 57,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>11,32; 49,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>14,49; 35,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>11,31; 28,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>14,22; 33,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>14,69; 35,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>15,39; 33,56</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>16,32; 30,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>15,32; 34,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>9,99; 28,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>10,38; 26,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>7,92; 27,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>22,04; 47,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>22,46; 47,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>20,22; 36,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>14,65; 26,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>21,4; 36,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>16,36; 31,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>16,3; 27,1</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>12,34; 29,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>25,53; 48,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>17,69; 34,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>8,23; 27,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>16,03; 41,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>11,08; 32,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>16,17; 39,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>14,02; 36,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>15,88; 29,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>21,79; 38,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>20,67; 34,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>14,17; 29,09</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>21,91; 37,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>16,29; 35,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>20,13; 39,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>14,53; 31,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>15,13; 32,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>18,99; 41,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>26,66; 51,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>21,69; 39,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>21,18; 32,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>20,56; 35,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>25,38; 41,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>20,59; 32,25</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>18,68; 26,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,5; 31,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>19,45; 29,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,06; 22,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>16,67; 27,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>23,1; 35,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>26,98; 39,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>22,33; 31,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>19,21; 25,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,55; 31,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,64; 31,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>19,59; 26,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6906-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,76</t>
+          <t>8,51; 25,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 43,8</t>
+          <t>10,53; 27,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,77</t>
+          <t>12,33; 36,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,4</t>
+          <t>9,59; 32,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>6,31; 35,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,54</t>
+          <t>17,8; 51,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 86,93</t>
+          <t>15,45; 48,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 40,8</t>
+          <t>15,12; 33,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,2</t>
+          <t>9,99; 24,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 41,02</t>
+          <t>15,23; 30,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 59,98</t>
+          <t>17,07; 36,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 27,18</t>
+          <t>13,76; 29,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 30,03</t>
+          <t>16,32; 30,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 27,99</t>
+          <t>15,32; 34,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 40,15</t>
+          <t>9,99; 28,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 40,83</t>
+          <t>10,55; 27,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 42,3</t>
+          <t>7,92; 27,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 57,0</t>
+          <t>22,04; 47,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 49,05</t>
+          <t>22,46; 47,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 35,7</t>
+          <t>20,41; 35,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 28,21</t>
+          <t>14,65; 26,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 33,24</t>
+          <t>21,4; 36,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 35,68</t>
+          <t>16,36; 31,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 33,56</t>
+          <t>16,36; 27,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,81</t>
+          <t>12,34; 29,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 34,08</t>
+          <t>25,53; 48,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 28,13</t>
+          <t>17,69; 34,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 26,29</t>
+          <t>8,57; 28,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 27,57</t>
+          <t>16,03; 41,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,04; 47,09</t>
+          <t>11,08; 32,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,46; 47,95</t>
+          <t>16,17; 39,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 36,21</t>
+          <t>6,46; 33,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,65; 26,91</t>
+          <t>15,88; 29,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 36,82</t>
+          <t>21,79; 38,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 31,32</t>
+          <t>20,67; 34,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 27,1</t>
+          <t>7,31; 26,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>26,58%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 29,29</t>
+          <t>21,91; 37,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,53; 48,14</t>
+          <t>16,29; 35,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 34,97</t>
+          <t>20,13; 39,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 27,65</t>
+          <t>14,9; 32,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 41,89</t>
+          <t>15,13; 32,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 32,75</t>
+          <t>18,99; 41,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,17; 39,09</t>
+          <t>26,66; 51,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 36,31</t>
+          <t>22,71; 40,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 29,89</t>
+          <t>21,18; 32,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,79; 38,39</t>
+          <t>20,56; 35,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 34,84</t>
+          <t>25,38; 41,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 29,09</t>
+          <t>21,2; 32,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,91; 37,82</t>
+          <t>18,68; 26,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 35,14</t>
+          <t>21,5; 31,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,13; 39,19</t>
+          <t>19,45; 29,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,53; 31,63</t>
+          <t>14,39; 23,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 32,64</t>
+          <t>16,67; 27,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 41,64</t>
+          <t>23,1; 35,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,66; 51,53</t>
+          <t>26,98; 39,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,69; 39,21</t>
+          <t>18,32; 30,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,18; 32,87</t>
+          <t>19,21; 25,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,56; 35,54</t>
+          <t>23,55; 31,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,38; 41,12</t>
+          <t>23,64; 31,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,59; 32,25</t>
+          <t>17,96; 25,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>22,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,97%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23,9%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,64%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>29,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>32,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>26,59%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,29%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>27,39%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>27,24%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>22,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>18,68; 26,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>21,5; 31,52</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>19,45; 29,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 22,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 27,71</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>23,1; 35,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>26,98; 39,47</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>22,33; 31,4</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 25,93</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>23,55; 31,38</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>23,64; 31,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 26,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6906-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 25,51</t>
+          <t>8,48; 26,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 27,75</t>
+          <t>10,49; 27,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,33; 36,13</t>
+          <t>12,87; 37,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 32,12</t>
+          <t>9,85; 32,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 35,35</t>
+          <t>6,31; 36,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 51,12</t>
+          <t>18,51; 50,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 48,92</t>
+          <t>15,3; 49,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 33,53</t>
+          <t>16,32; 33,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 24,31</t>
+          <t>9,51; 24,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 30,09</t>
+          <t>15,76; 30,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 36,98</t>
+          <t>15,99; 35,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,76; 29,49</t>
+          <t>14,17; 29,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,81</t>
+          <t>15,85; 29,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,32; 34,08</t>
+          <t>16,08; 35,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 28,13</t>
+          <t>9,33; 28,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 27,59</t>
+          <t>10,83; 27,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 27,57</t>
+          <t>8,08; 28,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 47,09</t>
+          <t>22,35; 48,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,46; 47,95</t>
+          <t>21,7; 48,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 35,93</t>
+          <t>19,47; 34,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,65; 26,91</t>
+          <t>15,33; 27,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 36,82</t>
+          <t>21,13; 36,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 31,32</t>
+          <t>16,86; 32,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 27,52</t>
+          <t>16,41; 27,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,34; 29,29</t>
+          <t>12,22; 27,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,53; 48,14</t>
+          <t>25,0; 48,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,69; 34,97</t>
+          <t>18,28; 35,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 28,34</t>
+          <t>8,15; 30,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 41,89</t>
+          <t>16,15; 40,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 32,75</t>
+          <t>11,01; 33,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,17; 39,09</t>
+          <t>17,42; 38,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 33,06</t>
+          <t>6,9; 32,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 29,89</t>
+          <t>15,9; 31,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,79; 38,39</t>
+          <t>21,6; 39,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 34,84</t>
+          <t>20,07; 34,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 26,02</t>
+          <t>8,05; 26,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 37,82</t>
+          <t>22,02; 37,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 35,14</t>
+          <t>15,53; 34,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,13; 39,19</t>
+          <t>20,39; 40,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 32,46</t>
+          <t>14,86; 32,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 32,64</t>
+          <t>15,55; 33,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 41,64</t>
+          <t>19,86; 43,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 51,53</t>
+          <t>26,55; 51,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 40,69</t>
+          <t>23,07; 39,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 32,87</t>
+          <t>21,33; 33,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 35,54</t>
+          <t>20,39; 34,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,38; 41,12</t>
+          <t>25,89; 41,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,2; 32,86</t>
+          <t>20,97; 32,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,81</t>
+          <t>18,65; 26,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,5; 31,52</t>
+          <t>20,88; 31,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,0</t>
+          <t>19,25; 29,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,34</t>
+          <t>14,76; 24,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,71</t>
+          <t>16,67; 27,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,1; 35,86</t>
+          <t>23,69; 36,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,98; 39,47</t>
+          <t>26,65; 39,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,32; 30,06</t>
+          <t>18,18; 29,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,93</t>
+          <t>19,33; 25,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,55; 31,38</t>
+          <t>23,65; 31,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,07</t>
+          <t>23,8; 31,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,58</t>
+          <t>18,36; 26,11</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población quesu trabajo le afecta de manera que tiene problemas de sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12191</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14019</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12721</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13436</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5659</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11326</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8910</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12830</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17850</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25345</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21631</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26266</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6728; 20794</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8035; 20983</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7035; 20766</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7016; 23293</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2034; 11741</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6342; 17375</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4576; 14748</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8925; 18581</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10607; 27050</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17471; 33801</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13522; 29950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17838; 36531</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32566</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22260</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16715</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19053</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8451</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21932</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19148</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26367</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41018</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>44192</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35863</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45419</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23143; 43347</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14760; 32887</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9051; 27243</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12132; 30671</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4266; 15197</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14191; 30912</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12057; 26957</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19218; 34150</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30474; 54041</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32818; 56593</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25721; 49472</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34570; 58795</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22274</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28916</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28548</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9273</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12819</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10953</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17558</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18226</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35093</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39869</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>46106</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27498</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13436; 30645</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19886; 38729</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20091; 39438</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4504; 16734</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7513; 19038</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5834; 17679</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11280; 24858</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6686; 31259</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24881; 48865</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28627; 51698</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35050; 60175</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12256; 39842</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39655</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19524</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25652</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22680</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20715</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19282</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24985</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31784</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60370</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38806</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>50637</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>54464</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30183; 51317</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12158; 27142</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18029; 36221</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15018; 33153</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13773; 29641</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12727; 27834</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17548; 34257</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23964; 41232</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48115; 75226</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29037; 49589</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40001; 63689</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42980; 66844</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>106686</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83635</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>64442</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47644</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>63492</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70601</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89206</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>154330</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>148212</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>154237</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>153648</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>88075; 126925</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>68102; 101429</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>67365; 101921</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>50125; 82915</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>36699; 60513</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>50884; 77900</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57639; 85697</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>64394; 106237</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>133854; 177728</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>127966; 169978</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>134773; 177346</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>127376; 181106</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>